--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1602,10 +1614,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1649,28 +1661,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1695,28 +1707,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1874,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1967,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2076,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2123,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2169,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2365,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2458,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2567,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2660,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2930,10 +2942,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2977,28 +2989,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3023,28 +3035,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3132,10 +3144,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3179,28 +3191,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3225,28 +3237,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3594,10 +3606,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3641,28 +3653,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3687,28 +3699,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3767,10 +3779,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3814,28 +3826,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3860,28 +3872,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3998,10 +4010,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4045,28 +4057,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4091,28 +4103,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4171,10 +4183,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4218,28 +4230,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4264,28 +4276,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4344,10 +4356,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4391,28 +4403,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4437,28 +4449,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4546,10 +4558,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4593,28 +4605,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4639,28 +4651,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4777,10 +4789,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4824,28 +4836,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4870,28 +4882,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5008,10 +5020,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5055,28 +5067,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5101,28 +5113,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5181,10 +5193,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5228,28 +5240,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5274,28 +5286,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5412,10 +5424,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5459,28 +5471,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5505,28 +5517,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5585,10 +5597,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5632,28 +5644,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5678,28 +5690,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5816,10 +5828,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5863,28 +5875,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5909,28 +5921,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6018,10 +6030,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6065,28 +6077,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6111,28 +6123,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6220,10 +6232,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6267,28 +6279,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6313,28 +6325,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6393,10 +6405,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6440,28 +6452,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6486,28 +6498,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6624,10 +6636,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6671,28 +6683,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6717,28 +6729,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6797,10 +6809,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6844,28 +6856,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6890,28 +6902,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6970,10 +6982,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7017,28 +7029,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7063,28 +7075,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7143,10 +7155,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7190,28 +7202,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7236,28 +7248,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7316,10 +7328,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7363,28 +7375,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7409,28 +7421,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7489,10 +7501,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7536,28 +7548,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7582,28 +7594,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7662,10 +7674,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7709,28 +7721,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7755,28 +7767,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7835,10 +7847,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7882,28 +7894,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7928,28 +7940,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8008,10 +8020,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8055,28 +8067,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8101,28 +8113,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8181,10 +8193,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8228,28 +8240,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8274,28 +8286,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8354,10 +8366,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8401,28 +8413,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8447,28 +8459,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8527,10 +8539,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8574,28 +8586,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8620,28 +8632,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8700,10 +8712,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8747,28 +8759,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8793,28 +8805,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9134,10 +9146,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9181,28 +9193,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9227,28 +9239,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9307,10 +9319,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9354,28 +9366,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9400,28 +9412,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9480,10 +9492,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9527,28 +9539,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9573,28 +9585,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9653,10 +9665,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9700,28 +9712,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9746,28 +9758,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9826,10 +9838,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
@@ -9873,28 +9885,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="s" s="2">
+      <c r="A338" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C338" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D338" t="s" s="2">
+      <c r="C338" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9919,28 +9931,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C340" t="s" s="2">
+      <c r="C340" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D340" t="s" s="2">
+      <c r="D340" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I340" t="s" s="2">
+      <c r="I340" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9999,10 +10011,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="2" t="s">
+      <c r="J342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10046,28 +10058,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="2">
+      <c r="A344" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="2">
+      <c r="C344" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10092,28 +10104,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="2">
+      <c r="C346" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="2">
+      <c r="D346" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="2">
+      <c r="I346" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10172,10 +10184,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="2" t="s">
+      <c r="J348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10219,28 +10231,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="2">
+      <c r="A350" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="2">
+      <c r="C350" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10265,28 +10277,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="2">
+      <c r="C352" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="2">
+      <c r="D352" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="2">
+      <c r="I352" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10345,10 +10357,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="2" t="s">
+      <c r="J354" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10392,28 +10404,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="A356" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="2">
+      <c r="C356" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10438,28 +10450,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="2">
+      <c r="C358" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="2">
+      <c r="D358" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="2">
+      <c r="I358" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10518,10 +10530,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10565,28 +10577,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10611,28 +10623,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10691,10 +10703,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
